--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-6.252776210025975E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>2.344786693687727E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-4.168521927863769E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>4.689582157519466E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-1.563146843159096E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>3.647500068544036E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-5.21064684168845E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763374019309268E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.76340789267671E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>5.210646841688433E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763376624146792E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763402682515765E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057486</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030207</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.422958366940966E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995568</v>
@@ -1131,13 +1131,13 @@
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-5.210646841688637E-15</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-1.823705899261405E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>3.126408623617652E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>-1.042129368337634E-14</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>3.647437051396946E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.68959791876889E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>2.084258736675342E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921121199122578E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.92111859561871E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>-3.126388105013037E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921118593853147E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211564E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1238,37 +1238,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.550000011643923</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648467</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.24571001129677E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-3.295635047860811E-28</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-1.823705899111451E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>3.12640862365643E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>-1.042129368337647E-14</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>3.647437051311584E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-3.647468549966981E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>2.605323420844186E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.921131620416255E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921118595618709E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-2.084258736675362E-14</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.921129015146826E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211565E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1369,37 +1369,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439229</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648466</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.247698214628102E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>1.042129367788573E-14</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-5.210646844155981E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.042129368337668E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>7.815970260220876E-15</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>-1.042129368886845E-14</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-1.317892393017685E-28</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>5.210646840332541E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5.564856224627882E-25</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>-5.210646841688504E-15</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>-1.302661709721819E-14</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>-5.210646843043007E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1500,37 +1500,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.550000011643923</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648467</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439229</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648466</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.24571001129677E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.247698214628102E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999938804</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-3.647452789192577E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307549695435073E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039325470437091E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>2.605323420851828E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.307651635937775E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039315416521886E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-6.252776210044566E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822481219634973E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556080044427924E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>5.731711525874179E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822481813928938E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556079222601535E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1775,37 +1775,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635732</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780354</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>5.970091341828235E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.1097491654787</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1849,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-1.585434522509406E-28</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.43578919040274E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797940938025456E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>-5.210646841703502E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.435562548846487E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797957757495518E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>1.563194052511133E-14</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940837629279578E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.185326475827308E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-2.605323420851893E-14</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940840398652364E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.185330661903426E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1906,37 +1906,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187527</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443645</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>5.811095985696714E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>5.210646841703669E-15</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.435913894025327E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797890855356745E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>-1.042129368340739E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.435687252469072E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797907674826805E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.940834265321341E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.185338212010653E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-1.563194052511143E-14</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940837034694127E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185342398086772E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2034,40 +2034,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187526</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443644</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>5.84012905409443E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>-5.210646841703828E-15</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>3.326287752764032E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-5.210646841703669E-15</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>3.369887432361088E-14</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>-6.69024598993602E-15</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>5.210646841703723E-15</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>-1.592229589995502E-14</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>-9.428761007923044E-16</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>7.550070791433002E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2168,37 +2168,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187527</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443645</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187526</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443644</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>5.811095985696714E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>5.84012905409443E-13</v>
       </c>
       <c r="AP5">
         <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-3.647452789192577E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307549695435073E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039325470437091E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>2.605323420851828E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.307651635937775E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039315416521886E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-6.252776210044566E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822481219634973E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556080044427924E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>5.731711525874179E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822481813928938E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556079222601535E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2443,37 +2443,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635732</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780354</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>5.970091341828235E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.1097491654787</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2517,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-1.585434522509406E-28</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.43578919040274E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797940938025456E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>-5.210646841703502E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.435562548846487E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797957757495518E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>1.563194052511133E-14</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940837629279578E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.185326475827308E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-2.605323420851893E-14</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940840398652364E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.185330661903426E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2574,37 +2574,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187527</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443645</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>5.811095985696714E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>5.210646841703669E-15</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.435913894025327E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797890855356745E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>-1.042129368340739E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.435687252469072E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797907674826805E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.940834265321341E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.185338212010653E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-1.563194052511143E-14</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940837034694127E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185342398086772E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2702,40 +2702,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187526</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443644</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299578</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.4761907156277824</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>5.84012905409443E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.003528846938024E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642544</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>-5.210646841703828E-15</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>3.326287752764032E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-5.210646841703669E-15</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>3.369887432361088E-14</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>-6.69024598993602E-15</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>5.210646841703723E-15</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>-1.592229589995502E-14</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>-9.428761007923044E-16</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>7.550070791433002E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2836,37 +2836,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187527</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443645</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187526</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443644</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>5.811095985696714E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>5.84012905409443E-13</v>
       </c>
       <c r="AP5">
         <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>4.736951571735479E-15</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>8.289562932676678E-15</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-2.368578668651521E-15</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>-7.105427357603315E-15</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>-7.104645508918498E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>9.474685570020526E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.763127964375725E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763137441769611E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-1.894780628694285E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763135069401512E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763137442171179E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169608</v>
       </c>
       <c r="AH2">
         <v>0.5000000001833943</v>
@@ -3120,28 +3120,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.493503335244053E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-1.894780628694277E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-1.183901770586073E-15</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>-2.368139473436658E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.894780628694272E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>2.368215167566039E-15</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>4.736690763332046E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-2.236314265239324E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587721953150953E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>4.736951571735917E-15</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587724321671356E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587731428530023E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3242,22 +3242,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.762332648049351E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3266,13 +3266,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3316,40 +3316,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-1.894780628694277E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-1.183901771996253E-15</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-7.105091046382968E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.657933050107487E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>2.368215169121134E-15</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>9.473642338759109E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-2.297838421316052E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587721953150953E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>4.736951571735889E-15</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587714847768217E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587721954626876E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.948373946335671E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -3397,13 +3397,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>-5.590785663098311E-29</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>1.184237893369672E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>-2.368475784995196E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>2.368475785867789E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>1.184237890361233E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>7.105427358999135E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>-4.736951569216721E-15</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>9.473903148509582E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>4.73695157173572E-15</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>9.473903139185552E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>-9.473903149512974E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3504,22 +3504,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.762332648049351E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -3528,7 +3528,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.948373946335671E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>4.736951571735479E-15</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>8.289562932676678E-15</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-2.368578668651521E-15</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>-7.105427357603315E-15</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>-7.104645508918498E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>9.474685570020526E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.763127964375725E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763137441769611E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-1.894780628694285E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763135069401512E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763137442171179E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169608</v>
       </c>
       <c r="AH2">
         <v>0.5000000001833943</v>
@@ -3788,28 +3788,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.493503335244053E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-1.894780628694277E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-1.183901770586073E-15</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>-2.368139473436658E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.894780628694272E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>2.368215167566039E-15</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>4.736690763332046E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-2.236314265239324E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587721953150953E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>4.736951571735917E-15</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587724321671356E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587731428530023E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3910,22 +3910,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.762332648049351E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3934,13 +3934,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3984,40 +3984,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-1.894780628694277E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-1.183901771996253E-15</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-7.105091046382968E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.657933050107487E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>2.368215169121134E-15</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>9.473642338759109E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-2.297838421316052E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587721953150953E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>4.736951571735889E-15</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587714847768217E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587721954626876E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4041,22 +4041,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.499999999774807</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255481</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.948373946335671E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -4065,13 +4065,13 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.784509069671129E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>-5.590785663098311E-29</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>1.184237893369672E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>-2.368475784995196E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>2.368475785867789E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>1.184237890361233E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>7.105427358999135E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>4.736951571735692E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>-4.736951569216721E-15</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>9.473903148509582E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>4.73695157173572E-15</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>9.473903139185552E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>-9.473903149512974E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4172,22 +4172,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607558</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395996</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.762332648049351E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -4196,7 +4196,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.948373946335671E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>7.105427357642026E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559549121113628E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551467810636935E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-9.473903143522709E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559549467588249E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551467811116674E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>2.131628207292674E-14</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833166549248543E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108899430396794E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-2.605323364468825E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833160613520356E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108899430680292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4447,31 +4447,31 @@
         <v>1.000000000005802</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891372</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140591</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK2">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.421147389896911E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-9.473903143522844E-15</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853122551042012E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171592906194412E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>1.184237892940362E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853122208831699E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.171559863673802E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-1.18423789294038E-14</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611055015927426E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.036292818284724E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>9.473903143523083E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611060951403614E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036289620899109E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4578,31 +4578,31 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513542</v>
       </c>
       <c r="AH3">
         <v>0.4340870104919985</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK3">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.658065434444131E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-1.89478062870458E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.853109590222937E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171581398913678E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>1.657933050116512E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853109248012643E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171548356393056E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>-1.184237892940389E-14</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.6110375506977E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036301941827674E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>7.105427357642389E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611043486173888E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036298744442059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4709,31 +4709,31 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513541</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK4">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.833822935202742E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
         <v>160.6235536280257</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>7.105427357642244E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>4.093252080536053E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>5.753640372425624E-16</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-4.73695157176148E-15</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>4.436075210182246E-16</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>2.728834720358336E-15</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>-2.368475785880671E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>-1.678302104603838E-14</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>-4.561771474933034E-15</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>-4.82313653067206E-29</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>1.640774897900252E-14</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>7.759125589686904E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513542</v>
       </c>
       <c r="AH5">
         <v>0.4340870104919985</v>
@@ -4849,25 +4849,25 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513541</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.658065434444131E-13</v>
       </c>
       <c r="AM5">
+        <v>-166.2935793222523</v>
+      </c>
+      <c r="AN5">
+        <v>160.6235536280258</v>
+      </c>
+      <c r="AO5">
+        <v>5.833822935202742E-13</v>
+      </c>
+      <c r="AP5">
         <v>-166.2935793222524</v>
-      </c>
-      <c r="AN5">
-        <v>160.6235536280257</v>
-      </c>
-      <c r="AO5">
-        <v>5.288738006152195E-13</v>
-      </c>
-      <c r="AP5">
-        <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
         <v>160.6235536280257</v>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>7.105427357642026E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559549121113628E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551467810636935E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-9.473903143522709E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559549467588249E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551467811116674E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>2.131628207292674E-14</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833166549248543E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108899430396794E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-2.605323364468825E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833160613520356E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108899430680292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5115,31 +5115,31 @@
         <v>1.000000000005802</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891372</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140591</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK2">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.421147389896911E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-9.473903143522844E-15</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853122551042012E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171592906194412E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>1.184237892940362E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853122208831699E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.171559863673802E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-1.18423789294038E-14</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611055015927426E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.036292818284724E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>9.473903143523083E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611060951403614E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036289620899109E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5246,31 +5246,31 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513542</v>
       </c>
       <c r="AH3">
         <v>0.4340870104919985</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK3">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.658065434444131E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-1.89478062870458E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.853109590222937E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171581398913678E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>1.657933050116512E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853109248012643E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171548356393056E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>-1.184237892940389E-14</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.6110375506977E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036301941827674E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>7.105427357642389E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611043486173888E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036298744442059E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5377,31 +5377,31 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513541</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005802</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903607997</v>
       </c>
       <c r="AK4">
         <v>0.4340870104725135</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.833822935202742E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222524</v>
       </c>
       <c r="AN4">
         <v>160.6235536280257</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.65883898130766E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>7.105427357642244E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>4.093252080536053E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>5.753640372425624E-16</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-4.73695157176148E-15</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>4.436075210182246E-16</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>2.728834720358336E-15</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>-2.368475785880671E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>-1.678302104603838E-14</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>-4.561771474933034E-15</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>-4.82313653067206E-29</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>1.640774897900252E-14</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>7.759125589686904E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513542</v>
       </c>
       <c r="AH5">
         <v>0.4340870104919985</v>
@@ -5517,25 +5517,25 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513541</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.658065434444131E-13</v>
       </c>
       <c r="AM5">
+        <v>-166.2935793222523</v>
+      </c>
+      <c r="AN5">
+        <v>160.6235536280258</v>
+      </c>
+      <c r="AO5">
+        <v>5.833822935202742E-13</v>
+      </c>
+      <c r="AP5">
         <v>-166.2935793222524</v>
-      </c>
-      <c r="AN5">
-        <v>160.6235536280257</v>
-      </c>
-      <c r="AO5">
-        <v>5.288738006152195E-13</v>
-      </c>
-      <c r="AP5">
-        <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
         <v>160.6235536280257</v>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948841501268242E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361229500199982E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.383140476790691E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948841926935403E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361177895860611E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.383230718134995E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.608538599326976E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.854388371385056E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853136062000358E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.618897995490897E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854385849892471E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853134335453292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511717</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384318</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.969794580847491</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499302545</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829483119791795E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453753111944554E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.461058335711552E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829547924375406E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453804716851256E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.46098535968107E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.798725327117486E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284785017839528E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284384703348336E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.695175318889288E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284787539396484E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284395453901635E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,40 +5914,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280077</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249128727</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,40 +5991,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829517607906095E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453671482922424E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.46125608187012E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.829513353503797E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453830613970972E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461165841093158E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.867805002355495E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284791257383944E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.284390274469645E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.764213615473636E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.28480107860579E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284384899205066E-09</v>
+        <v>1.28439200095234E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6045,40 +6045,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280078</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249126611</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>-8.658234899444943E-16</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>2.786595120734275E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>-1.7264746478358E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-5.616214937519168E-15</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-5.690557997957582E-15</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>1.267286858255978E-14</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>4.315669386383757E-15</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>-9.889376861057606E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>9.024070604318453E-15</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>8.62901122334351E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>6.936193196589091E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>7.10174727391293E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,40 +6176,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI5">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280077</v>
       </c>
       <c r="AJ5">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AK5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AL5">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280078</v>
       </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249128727</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249126611</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948841501268242E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361229500199982E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.383140476790691E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948841926935403E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361177895860611E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.383230718134995E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.608538599326976E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.854388371385056E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853136062000358E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.618897995490897E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854385849892471E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853134335453292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511717</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384318</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.969794580847491</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499302545</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829483119791795E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453753111944554E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.461058335711552E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829547924375406E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453804716851256E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.46098535968107E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.798725327117486E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284785017839528E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284384703348336E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.695175318889288E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284787539396484E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284395453901635E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,40 +6585,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280077</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249128727</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,40 +6662,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829517607906095E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453671482922424E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.46125608187012E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.829513353503797E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453830613970972E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461165841093158E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.867805002355495E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284791257383944E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.284390274469645E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.764213615473636E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.28480107860579E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284384899205066E-09</v>
+        <v>1.28439200095234E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6716,40 +6716,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280078</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827574</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589747</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328787</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249126611</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061671817</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>-8.658234899444943E-16</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>2.786595120734275E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>-1.7264746478358E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-5.616214937519168E-15</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-5.690557997957582E-15</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>1.267286858255978E-14</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>4.315669386383757E-15</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>-9.889376861057606E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>9.024070604318453E-15</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>8.62901122334351E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>6.936193196589091E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>7.10174727391293E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,40 +6847,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AI5">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280077</v>
       </c>
       <c r="AJ5">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893286</v>
       </c>
       <c r="AK5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658223</v>
       </c>
       <c r="AL5">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280078</v>
       </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249128727</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249126611</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.139222398507015E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.400998679156698E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686186269583576E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.139234974149244E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.40099768154055E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686224609195212E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422988939117487E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225685451793197E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937201675164555E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422977943233186E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225696416755986E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937205747023335E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522057</v>
       </c>
       <c r="AH2">
         <v>0.9439982598637759</v>
@@ -7134,16 +7134,16 @@
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975981</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -7152,7 +7152,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046417828708009E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.669948462516513E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.619247384297642E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046406367310694E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.66994486651422E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.617905773500521E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743326478214448E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.41895177661057E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.790678666815876E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743378900337764E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418941191526874E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.790666715672073E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,25 +7256,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650226</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854043</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587857</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -7283,7 +7283,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046414303432727E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669949273958316E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.619391223044099E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046408595585271E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669988018138154E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.619151668364902E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743200265844407E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419093181031611E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.790726577684448E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743263829340608E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419068212073271E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790733769659933E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7387,25 +7387,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650225</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854044</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587858</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -7414,7 +7414,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>1.039296242734735E-14</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>-7.597658223173153E-16</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>1.102056117929345E-14</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>-2.203297050694517E-15</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-9.97646418179637E-16</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>4.791086857414062E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>-7.981824434611081E-15</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-9.187230158685764E-15</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-1.914311928483403E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>7.888273127560795E-15</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>1.096492844422505E-14</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>1.43838746446533E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,25 +7518,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650226</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854043</v>
       </c>
       <c r="AI5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650225</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854044</v>
       </c>
       <c r="AL5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587857</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -7545,7 +7545,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587858</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.139222398507015E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.400998679156698E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686186269583576E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.139234974149244E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.40099768154055E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686224609195212E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422988939117487E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225685451793197E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937201675164555E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422977943233186E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225696416755986E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937205747023335E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522057</v>
       </c>
       <c r="AH2">
         <v>0.9439982598637759</v>
@@ -8083,16 +8083,16 @@
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975981</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -8101,7 +8101,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046417828708009E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.669948462516513E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.619247384297642E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046406367310694E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.66994486651422E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.617905773500521E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743326478214448E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.41895177661057E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.790678666815876E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743378900337764E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418941191526874E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.790666715672073E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,25 +8205,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650226</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854043</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587857</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -8232,7 +8232,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046414303432727E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669949273958316E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.619391223044099E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046408595585271E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669988018138154E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.619151668364902E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743200265844407E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419093181031611E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.790726577684448E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743263829340608E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.419068212073271E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790733769659933E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8336,25 +8336,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650225</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854044</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618185</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799973</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587858</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -8363,7 +8363,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684888</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>1.039296242734735E-14</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>-7.597658223173153E-16</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>1.102056117929345E-14</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>-2.203297050694517E-15</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-9.97646418179637E-16</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>4.791086857414062E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>-7.981824434611081E-15</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-9.187230158685764E-15</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-1.914311928483403E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>7.888273127560795E-15</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>1.096492844422505E-14</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>1.43838746446533E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,25 +8467,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650226</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854043</v>
       </c>
       <c r="AI5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650225</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854044</v>
       </c>
       <c r="AL5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587857</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -8494,7 +8494,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587858</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436081461084546E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079511761701518E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101051338373954E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436079895380089E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079478575394007E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.100969303646426E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.479902200735785E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186858135941008E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185613690326093E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.476764887131091E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186863022976272E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185615258509451E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,34 +8745,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364462</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759023</v>
+        <v>0.8818141464759018</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376949</v>
+        <v>0.8815929672376951</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.038971255810237</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120287249627845E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.026593211823391E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033705293748271E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.120271556077978E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026593211710767E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033754152722489E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.224532580645682E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062295679414214E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061875070495257E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.240204080156098E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062295679407559E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.061878388167341E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232852</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.0389712633107681</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
@@ -8903,7 +8903,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120255863429069E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026636062816774E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.03376983526767E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.120302899609434E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026636062704155E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033851870896169E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.255876112098036E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.062273596902263E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061886591734797E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.271590278928082E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062273596895608E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061885023498197E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9010,22 +9010,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232851</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331073298</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
@@ -9034,7 +9034,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>3.136219840870551E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>-3.063355496893163E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-4.885908684036514E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>-1.56690990213285E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>5.114782366428582E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>4.101787056135335E-15</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>3.941941798215323E-16</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>2.291219497894874E-14</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>3.317665428234159E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>-1.961370752688253E-15</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-2.330425579289929E-14</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>7.841216279011783E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9141,22 +9141,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232852</v>
       </c>
       <c r="AJ5">
         <v>0.3310660020099552</v>
       </c>
       <c r="AK5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AL5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232851</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.0389712633107681</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
@@ -9165,7 +9165,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331073298</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436081461084546E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079511761701518E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101051338373954E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436079895380089E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079478575394007E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.100969303646426E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.479902200735785E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186858135941008E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185613690326093E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.476764887131091E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186863022976272E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185615258509451E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,34 +9416,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364462</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759023</v>
+        <v>0.8818141464759018</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376949</v>
+        <v>0.8815929672376951</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.038971255810237</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120287249627845E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.026593211823391E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033705293748271E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.120271556077978E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026593211710767E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033754152722489E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.224532580645682E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062295679414214E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061875070495257E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.240204080156098E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062295679407559E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.061878388167341E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9550,22 +9550,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232852</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.0389712633107681</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
@@ -9574,7 +9574,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120255863429069E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026636062816774E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.03376983526767E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.120302899609434E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026636062704155E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033851870896169E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.255876112098036E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.062273596902263E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061886591734797E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.271590278928082E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062273596895608E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061885023498197E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9681,22 +9681,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232851</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915781</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970561</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268875</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331073298</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
@@ -9705,7 +9705,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143558761</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>3.136219840870551E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>-3.063355496893163E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-4.885908684036514E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>-1.56690990213285E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>5.114782366428582E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>4.101787056135335E-15</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>3.941941798215323E-16</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>2.291219497894874E-14</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>3.317665428234159E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>-1.961370752688253E-15</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-2.330425579289929E-14</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>7.841216279011783E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9812,22 +9812,22 @@
         <v>0.3310660020099552</v>
       </c>
       <c r="AH5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AI5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232852</v>
       </c>
       <c r="AJ5">
         <v>0.3310660020099552</v>
       </c>
       <c r="AK5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041076</v>
       </c>
       <c r="AL5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232851</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.0389712633107681</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
@@ -9836,7 +9836,7 @@
         <v>100.8224244195524</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331073298</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.624692260070829E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.141998321769983E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.703636890339579E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.62469477770593E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141998951178759E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.703658610340026E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121952114403444E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951314355150396E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512292973197117E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121952597431362E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951316285553616E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512292343809648E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,13 +10087,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769241</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936434</v>
+        <v>0.9547462544936435</v>
       </c>
       <c r="AJ2">
         <v>0.5411436570370807</v>
@@ -10102,19 +10102,19 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076559</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748946144792826E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806691288824372E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678717238514942E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748976150339275E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806687930471196E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678482769200434E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739895899748381E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504342858538468E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374312008375891E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739875557127975E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504365309012113E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374271716234375E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10221,7 +10221,7 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI3">
         <v>0.9547462544799001</v>
@@ -10233,7 +10233,7 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM3">
         <v>-10.864247115544</v>
@@ -10242,10 +10242,10 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.749006156348719E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806703875958161E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.679043030708648E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.748930633314491E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806675343337407E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678934432732023E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739855214233964E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504381465987262E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374302568025546E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739840719839661E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504326701563322E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374305714843195E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544799</v>
       </c>
       <c r="AJ4">
         <v>0.5411436570370807</v>
@@ -10364,19 +10364,19 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM4">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554401</v>
       </c>
       <c r="AN4">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-2.759002276182734E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>2.245050784310461E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>1.727393998930436E-16</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>-4.017715655071962E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>-2.935271590951564E-16</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-4.566172895515893E-16</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-7.755623420806628E-16</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>3.3582953034946E-16</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-4.658574260707207E-15</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-5.339868236763803E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-4.175423223898613E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>-2.486626302714762E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI5">
         <v>0.9547462544799001</v>
@@ -10492,10 +10492,10 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AL5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544799</v>
       </c>
       <c r="AM5">
         <v>-10.864247115544</v>
@@ -10504,16 +10504,16 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554401</v>
       </c>
       <c r="AQ5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.624692260070829E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.141998321769983E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.703636890339579E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.62469477770593E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141998951178759E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.703658610340026E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121952114403444E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951314355150396E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512292973197117E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121952597431362E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951316285553616E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512292343809648E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769241</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936434</v>
+        <v>0.9547462544936435</v>
       </c>
       <c r="AJ2">
         <v>0.5411436570370807</v>
@@ -10773,19 +10773,19 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076559</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748946144792826E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806691288824372E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678717238514942E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748976150339275E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806687930471196E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678482769200434E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739895899748381E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504342858538468E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374312008375891E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739875557127975E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504365309012113E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374271716234375E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10892,7 +10892,7 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI3">
         <v>0.9547462544799001</v>
@@ -10904,7 +10904,7 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM3">
         <v>-10.864247115544</v>
@@ -10913,10 +10913,10 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.749006156348719E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806703875958161E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.679043030708648E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.748930633314491E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806675343337407E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678934432732023E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739855214233964E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504381465987262E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374302568025546E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739840719839661E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504326701563322E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374305714843195E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11023,10 +11023,10 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544799</v>
       </c>
       <c r="AJ4">
         <v>0.5411436570370807</v>
@@ -11035,19 +11035,19 @@
         <v>0.857250149196972</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833358</v>
       </c>
       <c r="AM4">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554401</v>
       </c>
       <c r="AN4">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-2.759002276182734E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>2.245050784310461E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>1.727393998930436E-16</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>-4.017715655071962E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>-2.935271590951564E-16</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-4.566172895515893E-16</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-7.755623420806628E-16</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>3.3582953034946E-16</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-4.658574260707207E-15</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-5.339868236763803E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-4.175423223898613E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>-2.486626302714762E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AI5">
         <v>0.9547462544799001</v>
@@ -11163,10 +11163,10 @@
         <v>0.541143657046129</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036543</v>
       </c>
       <c r="AL5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544799</v>
       </c>
       <c r="AM5">
         <v>-10.864247115544</v>
@@ -11175,16 +11175,16 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554401</v>
       </c>
       <c r="AQ5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.96663253515921E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427823835867271E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405269619740148E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966622144204839E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427875779791781E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405269603370296E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.671590961878442E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830054616012857E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831374828845509E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.675051238617882E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830051150621859E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831381756001665E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,40 +11429,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053328</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427213</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626235</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665956497</v>
       </c>
       <c r="AN2">
         <v>-179.9827832337043</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329747</v>
+        <v>-179.9827832329746</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.88852111249365E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475941273658712E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.468423180803357E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.888590389348496E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.47582006716345E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468492509270425E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.997582571622897E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276682562896313E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277134178708511E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.962970044898017E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.276686029920697E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277113400778077E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,40 +11560,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264539</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914723</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853410631</v>
       </c>
       <c r="AN3">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.888590358199068E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.47594129447257E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468423180803357E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888659655867761E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.47582006716345E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468492488456584E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>9.066869904734154E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276689489548233E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277134178708511E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.962990858745788E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276686029920697E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277120327430008E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,40 +11691,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126454</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914722</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853410367</v>
       </c>
       <c r="AN4">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>-3.464366655585461E-15</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>1.03878964959612E-14</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-6.928733315332687E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-3.464366655585462E-15</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>5.19446859443566E-15</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-3.465407349589307E-15</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>3.462285270751625E-15</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>6.929773999918017E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>6.924570547640833E-15</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>3.462285270751625E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>1.733224019662099E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>6.925611239563798E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,40 +11822,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264539</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914723</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126454</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914722</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853410631</v>
       </c>
       <c r="AN5">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853410367</v>
       </c>
       <c r="AQ5">
         <v>-179.9827832232864</v>
       </c>
       <c r="AR5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
     </row>
   </sheetData>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.96663253515921E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427823835867271E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405269619740148E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966622144204839E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427875779791781E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405269603370296E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.671590961878442E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830054616012857E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831374828845509E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.675051238617882E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830051150621859E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831381756001665E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,40 +12100,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053328</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427213</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626235</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665956497</v>
       </c>
       <c r="AN2">
         <v>-179.9827832337043</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329747</v>
+        <v>-179.9827832329746</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.88852111249365E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475941273658712E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.468423180803357E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.888590389348496E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.47582006716345E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468492509270425E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.997582571622897E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276682562896313E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277134178708511E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.962970044898017E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.276686029920697E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277113400778077E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,40 +12231,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264539</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914723</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853410631</v>
       </c>
       <c r="AN3">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.888590358199068E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.47594129447257E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468423180803357E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888659655867761E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.47582006716345E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468492488456584E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>9.066869904734154E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276689489548233E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277134178708511E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.962990858745788E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276686029920697E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277120327430008E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,40 +12362,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126454</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914722</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211738</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042845</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.365564864816901</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853410367</v>
       </c>
       <c r="AN4">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806549557</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.9827832258908</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379762</v>
+        <v>-179.9827832379761</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>-3.464366655585461E-15</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>1.03878964959612E-14</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-6.928733315332687E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-3.464366655585462E-15</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>5.19446859443566E-15</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-3.465407349589307E-15</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>3.462285270751625E-15</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>6.929773999918017E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>6.924570547640833E-15</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>3.462285270751625E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>1.733224019662099E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>6.925611239563798E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,40 +12493,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264539</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914723</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126454</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914722</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349934</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853410631</v>
       </c>
       <c r="AN5">
         <v>-179.9827832232864</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853410367</v>
       </c>
       <c r="AQ5">
         <v>-179.9827832232864</v>
       </c>
       <c r="AR5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
     </row>
   </sheetData>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278269012817818E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906611861981444E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.13306424543062E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.278256888687237E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906606378158032E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133058393909852E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137797410536296E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345315144631006E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.970475189973403E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137789027111773E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345317838511843E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970481734897035E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615289</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237828</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935438</v>
+        <v>0.4394789399935442</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003904</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.8366771790809</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876524</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.594120409634764E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.355208033861076E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044354736389189E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594201237340838E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355153193281097E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044360588097548E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379285294312415E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448451017861509E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656647331591435E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379290883070502E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448453712008509E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656640788796228E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.439478940041315</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594160823504687E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355316756614149E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044349538910298E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.594241651210762E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355207075688775E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044355390618657E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.3792880886723E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448459291810203E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.656712391438653E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379293677430388E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448464680077587E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656705848643447E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>2.794359885505017E-16</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>7.184532838047233E-17</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>5.197478891184481E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>-8.362209973170156E-15</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>1.633236140311482E-14</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>-3.89810916838836E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>4.041386992309826E-15</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>1.024664209648618E-14</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-6.505984722056505E-15</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>-3.482515015208824E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>-8.995375675696777E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>4.879488541542379E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.439478940041315</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AQ5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278269012817818E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906611861981444E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.13306424543062E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.278256888687237E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906606378158032E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133058393909852E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137797410536296E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345315144631006E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.970475189973403E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137789027111773E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345317838511843E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970481734897035E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615289</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237828</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935438</v>
+        <v>0.4394789399935442</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003904</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.8366771790809</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876524</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.594120409634764E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.355208033861076E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044354736389189E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594201237340838E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355153193281097E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044360588097548E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379285294312415E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448451017861509E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656647331591435E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379290883070502E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448453712008509E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656640788796228E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.439478940041315</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594160823504687E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355316756614149E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044349538910298E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.594241651210762E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355207075688775E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044355390618657E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.3792880886723E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448459291810203E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.656712391438653E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379293677430388E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448464680077587E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656705848643447E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682254</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054985</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293727</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389996049</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908429</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>2.794359885505017E-16</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>7.184532838047233E-17</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>5.197478891184481E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>-8.362209973170156E-15</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>1.633236140311482E-14</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>-3.89810916838836E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>4.041386992309826E-15</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>1.024664209648618E-14</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-6.505984722056505E-15</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>-3.482515015208824E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>-8.995375675696777E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>4.879488541542379E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.439478940041315</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704576</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994036</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413152</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AN5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660115</v>
       </c>
       <c r="AQ5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919065</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452727983146302E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142524668605507E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121028690738798E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.45272483605753E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142587630210346E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.121060148219873E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.492413265424844E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163966964816527E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.165216318822527E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.492412251757065E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163970109442857E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165222614694901E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14113,37 +14113,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292124</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.3321958182584024</v>
       </c>
       <c r="AJ2">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL2">
         <v>0.332195818314362</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.0195521203673767</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777207</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815422</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
         <v>-179.9804478924417</v>
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175676044245393E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.047550174225831E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040374386275194E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175676054871765E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.04748721888648E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040342892103877E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.234581394252495E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.05465145706732E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055067911278941E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.203109419024037E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054648312070734E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.055074204540309E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14244,25 +14244,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ3">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL3">
         <v>0.332195818314362</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224252909</v>
       </c>
       <c r="AN3">
         <v>-179.9804478594382</v>
@@ -14271,10 +14271,10 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
         <v>-179.9804478924417</v>
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175613100428951E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047518702317619E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040342892887472E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175613100315567E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.04748721888648E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.040311420195636E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.234559914745939E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.054651458141296E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055074204586615E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.234559847736739E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054648312070734E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074203466334E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14375,25 +14375,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ4">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL4">
         <v>0.332195818314362</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224254982</v>
       </c>
       <c r="AN4">
         <v>-179.9804478594382</v>
@@ -14402,10 +14402,10 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
         <v>-179.9804478924417</v>
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>4.718638282369419E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>3.933988525152739E-15</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>-6.293307668952258E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>5.369882404810733E-19</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>2.147948939966403E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>6.295992607641811E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>1.342470601206627E-18</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>-3.149338773165683E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-1.573595410061096E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-6.294381648611885E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14506,25 +14506,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI5">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224252909</v>
       </c>
       <c r="AN5">
         <v>-179.9804478594382</v>
@@ -14533,7 +14533,7 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224254982</v>
       </c>
       <c r="AQ5">
         <v>-179.9804478594382</v>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452727983146302E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142524668605507E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121028690738798E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.45272483605753E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142587630210346E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.121060148219873E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.492413265424844E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163966964816527E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.165216318822527E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.492412251757065E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163970109442857E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165222614694901E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15062,37 +15062,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292124</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.3321958182584024</v>
       </c>
       <c r="AJ2">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL2">
         <v>0.332195818314362</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.0195521203673767</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777207</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815422</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
         <v>-179.9804478924417</v>
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175676044245393E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.047550174225831E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040374386275194E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175676054871765E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.04748721888648E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040342892103877E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.234581394252495E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.05465145706732E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055067911278941E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.203109419024037E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054648312070734E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.055074204540309E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15193,25 +15193,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ3">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL3">
         <v>0.332195818314362</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224252909</v>
       </c>
       <c r="AN3">
         <v>-179.9804478594382</v>
@@ -15220,10 +15220,10 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
         <v>-179.9804478924417</v>
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175613100428951E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047518702317619E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040342892887472E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175613100315567E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.04748721888648E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.040311420195636E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.234559914745939E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.054651458141296E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055074204586615E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.234559847736739E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054648312070734E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074203466334E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15324,25 +15324,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ4">
         <v>0.6643916362152703</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009129</v>
       </c>
       <c r="AL4">
         <v>0.332195818314362</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224254982</v>
       </c>
       <c r="AN4">
         <v>-179.9804478594382</v>
@@ -15351,10 +15351,10 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177374127</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
         <v>-179.9804478924417</v>
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>4.718638282369419E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>3.933988525152739E-15</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>-6.293307668952258E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>5.369882404810733E-19</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>2.147948939966403E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>6.295992607641811E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>1.342470601206627E-18</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>-3.149338773165683E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-1.573595410061096E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-6.294381648611885E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15455,25 +15455,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AI5">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AJ5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244897</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914799</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330155</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224252909</v>
       </c>
       <c r="AN5">
         <v>-179.9804478594382</v>
@@ -15482,7 +15482,7 @@
         <v>-179.9804478960748</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224254982</v>
       </c>
       <c r="AQ5">
         <v>-179.9804478594382</v>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947739430459972E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540754013648226E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507018063591554E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947735442241474E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.540752242897214E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507019250933348E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630866555415626E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.619498519677987E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229422828408057E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630918498560876E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619497853005938E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229409359184699E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,40 +15733,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478356</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650583</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.379033961253854</v>
       </c>
       <c r="AJ2">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.82735019367443</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726732</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.492356840185958E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135788315381177E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.35677665198604E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492430543538414E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135783932987633E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356791724529323E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.876936162092095E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.20650607052899E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743156879930904E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.876922888979061E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.20650186186722E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743194090638579E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,40 +15864,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI3">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ3">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492355627784723E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135719753404293E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.356758847302423E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492358052529039E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135690995295155E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.356785789634782E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.876954284844437E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206497424899279E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743177086982581E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876918039374119E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206494320894041E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743200826322473E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15995,25 +15995,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654487</v>
       </c>
       <c r="AI4">
         <v>0.379033961332701</v>
       </c>
       <c r="AJ4">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -16022,13 +16022,13 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>2.960893098654487E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>7.522655201896222E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>3.287763011743775E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>-1.033123415976491E-14</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>-7.960854219248164E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-1.507294649351505E-15</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>3.442690283492964E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>-6.874515664232431E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>1.700389427119776E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>-4.770005023763292E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>1.108320127089663E-14</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-3.72109459532954E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,34 +16126,34 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH5">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI5">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ5">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654487</v>
       </c>
       <c r="AL5">
         <v>0.379033961332701</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO5">
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AQ5">
         <v>-155.6209588645546</v>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947739430459972E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540754013648226E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507018063591554E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947735442241474E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.540752242897214E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507019250933348E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630866555415626E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.619498519677987E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229422828408057E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630918498560876E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619497853005938E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229409359184699E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,40 +16404,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478356</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650583</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.379033961253854</v>
       </c>
       <c r="AJ2">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.82735019367443</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726732</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.492356840185958E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135788315381177E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.35677665198604E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492430543538414E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135783932987633E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356791724529323E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.876936162092095E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.20650607052899E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743156879930904E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.876922888979061E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.20650186186722E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743194090638579E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,40 +16535,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI3">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ3">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492355627784723E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135719753404293E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.356758847302423E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492358052529039E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135690995295155E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.356785789634782E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.876954284844437E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206497424899279E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743177086982581E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876918039374119E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206494320894041E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743200826322473E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16666,25 +16666,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654487</v>
       </c>
       <c r="AI4">
         <v>0.379033961332701</v>
       </c>
       <c r="AJ4">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636048</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571297</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.379033961312989</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN4">
         <v>-155.6209588645546</v>
@@ -16693,13 +16693,13 @@
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423936</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>2.960893098654487E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>7.522655201896222E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>3.287763011743775E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>-1.033123415976491E-14</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>-7.960854219248164E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-1.507294649351505E-15</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>3.442690283492964E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>-6.874515664232431E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>1.700389427119776E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>-4.770005023763292E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>1.108320127089663E-14</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-3.72109459532954E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,34 +16797,34 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AH5">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544871</v>
       </c>
       <c r="AI5">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ5">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688609</v>
       </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654487</v>
       </c>
       <c r="AL5">
         <v>0.379033961332701</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007105</v>
       </c>
       <c r="AN5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO5">
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AQ5">
         <v>-155.6209588645546</v>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-6.252776210025975E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>2.344786693687727E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-4.168521927863769E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>4.689582157519466E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-1.563146843159096E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>3.647500068544036E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-5.21064684168845E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763374019309268E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.76340789267671E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>5.210646841688433E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763376624146792E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763402682515765E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18462,25 +18462,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057486</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030207</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.422958366940966E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995568</v>
@@ -18489,13 +18489,13 @@
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-5.210646841688637E-15</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-1.823705899261405E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>3.126408623617652E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>-1.042129368337634E-14</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>3.647437051396946E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-4.68959791876889E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>2.084258736675342E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921121199122578E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.92111859561871E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>-3.126388105013037E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921118593853147E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211564E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18596,37 +18596,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.550000011643923</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648467</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.24571001129677E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-3.295635047860811E-28</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-1.823705899111451E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>3.12640862365643E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>-1.042129368337647E-14</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>3.647437051311584E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-3.647468549966981E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>2.605323420844186E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.921131620416255E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921118595618709E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-2.084258736675362E-14</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.921129015146826E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211565E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18727,37 +18727,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439229</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648466</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593794</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493902</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.247698214628102E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>7.450642698516807E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>1.042129367788573E-14</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-5.210646844155981E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.042129368337668E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>7.815970260220876E-15</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>-1.042129368886845E-14</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-1.317892393017685E-28</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>5.210646840332541E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5.564856224627882E-25</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>-5.210646841688504E-15</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>-1.302661709721819E-14</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>-5.210646843043007E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18858,37 +18858,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.550000011643923</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648467</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439229</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648466</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.24571001129677E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999938804</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.247698214628102E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999938804</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
